--- a/xlsx/nor_oda_refugeecosts_tenyear.xlsx
+++ b/xlsx/nor_oda_refugeecosts_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til flyktningutgifter i giverland, 2014-2023. Målt i utbetalinger (NOK mrd.) og prosent av total bistand</t>
+          <t>Arkfane Figurdata viser data for Bistand til flyktningutgifter i giverland, 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand</t>
         </is>
       </c>
     </row>
@@ -400,82 +400,82 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>1.756514</v>
+        <v>3.732893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>3.732893</v>
+        <v>6.719562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>6.719562</v>
+        <v>1.239643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>1.239643</v>
+        <v>0.827431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>0.827431</v>
+        <v>0.5238290010000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>0.5238290010000001</v>
+        <v>0.445942999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>0.445942999</v>
+        <v>0.448909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>0.448909</v>
+        <v>4.963940517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>4.963940517</v>
+        <v>4.516505201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>4.516505201</v>
+        <v>3.996680038</v>
       </c>
     </row>
   </sheetData>
@@ -515,142 +515,142 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>32.04571058054</v>
+        <v>34.48238658563</v>
       </c>
       <c r="C2">
-        <v>1.756514</v>
+        <v>3.732893</v>
       </c>
       <c r="D2">
-        <v>0.05481276489673649</v>
+        <v>0.108255064965707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>34.48238658563</v>
+        <v>36.78595405862</v>
       </c>
       <c r="C3">
-        <v>3.732893</v>
+        <v>6.719562</v>
       </c>
       <c r="D3">
-        <v>0.108255064965707</v>
+        <v>0.1826665142160535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>36.78595405862</v>
+        <v>34.11293368768</v>
       </c>
       <c r="C4">
-        <v>6.719562</v>
+        <v>1.239643</v>
       </c>
       <c r="D4">
-        <v>0.1826665142160535</v>
+        <v>0.03633938409840434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>34.11293368768</v>
+        <v>34.63188134325</v>
       </c>
       <c r="C5">
-        <v>1.239643</v>
+        <v>0.827431</v>
       </c>
       <c r="D5">
-        <v>0.03633938409840434</v>
+        <v>0.02389217587687514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>34.63188134325</v>
+        <v>37.81063356129</v>
       </c>
       <c r="C6">
-        <v>0.827431</v>
+        <v>0.5238290010000001</v>
       </c>
       <c r="D6">
-        <v>0.02389217587687514</v>
+        <v>0.01385401279116066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>37.81063356129</v>
+        <v>39.4948284947</v>
       </c>
       <c r="C7">
-        <v>0.5238290010000001</v>
+        <v>0.445942999</v>
       </c>
       <c r="D7">
-        <v>0.01385401279116066</v>
+        <v>0.01129117446502757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>39.4948284947</v>
+        <v>40.14783542985</v>
       </c>
       <c r="C8">
-        <v>0.445942999</v>
+        <v>0.448909</v>
       </c>
       <c r="D8">
-        <v>0.01129117446502757</v>
+        <v>0.01118139982376821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>40.14783542985</v>
+        <v>49.61199787584</v>
       </c>
       <c r="C9">
-        <v>0.448909</v>
+        <v>4.963940517</v>
       </c>
       <c r="D9">
-        <v>0.01118139982376821</v>
+        <v>0.1000552432785081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>49.61199787584</v>
+        <v>58.58382483068</v>
       </c>
       <c r="C10">
-        <v>4.963940517</v>
+        <v>4.516505201</v>
       </c>
       <c r="D10">
-        <v>0.1000552432785081</v>
+        <v>0.07709474780886504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>58.58382483068</v>
+        <v>55.68584200766</v>
       </c>
       <c r="C11">
-        <v>4.516505201</v>
+        <v>3.996680038</v>
       </c>
       <c r="D11">
-        <v>0.07709474780886504</v>
+        <v>0.07177192431516484</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_refugeecosts_tenyear.xlsx
+++ b/xlsx/nor_oda_refugeecosts_tenyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til flyktningutgifter i giverland, 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til flyktningutgifter i giverland. 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand</t>
         </is>
       </c>
     </row>
